--- a/biology/Botanique/Trillium_sulcatum/Trillium_sulcatum.xlsx
+++ b/biology/Botanique/Trillium_sulcatum/Trillium_sulcatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trillium sulcatum est une espèce de plantes herbacées, vivaces et rhizomateuses de la famille des Melanthiaceae (classification APG III).
 En classification classique (Cronquist), elle était placées parmi les Liliaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, qui remplace le Trille rouge dans le sud-est des États-Unis, fleurit au printemps dans les forêts fraîches et le long des rivières. La fleur, de 4 à 10 cm de diamètre à larges pétales rouges à extrémité renversée, est portée par un pédoncule dressé ou légèrement recourbé. Les feuilles obovales à elliptiques sont acuminées. Le fruit est une baie rouge.
 </t>
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du sud des Virginies, au nord de la Géorgie et de l’Alabama.
 </t>
@@ -574,7 +590,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trillium sulcatum f. albolutescens T.S.Patrick</t>
         </is>
@@ -604,7 +622,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains plants ont des fleurs jaune pâle, ce qui avait amenés à les placer dans une forme à part (Trillium sulcatum f. albolutescens) mais celle-ci n'est plus reconnue.
 </t>
